--- a/fbpyutils_finance/bovespa/tabelas_anexas_bovespa.xlsx
+++ b/fbpyutils_finance/bovespa/tabelas_anexas_bovespa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\fbpyutils-finance\fbpyutils_finance\providers\bovespa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcjbispo\Projetos\fbpyutils-finance\fbpyutils_finance\bovespa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD164C08-7B04-4A78-8B60-6AEEF8D88B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE1C50-D793-4667-B253-3298C2B392C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26900" yWindow="-4970" windowWidth="27330" windowHeight="15290" xr2:uid="{D7208E03-29C4-4A0D-8F92-4487C19C65F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D7208E03-29C4-4A0D-8F92-4487C19C65F5}"/>
   </bookViews>
   <sheets>
     <sheet name="BDI" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="259">
   <si>
     <t>CODIGO</t>
   </si>
@@ -811,6 +804,9 @@
   </si>
   <si>
     <t>WRT</t>
+  </si>
+  <si>
+    <t>DESCRICAO_2</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D484272A-C974-426D-A42E-4C3BD59FF540}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -2398,7 +2394,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2415,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2471,9 +2467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D66977-97A4-499D-840F-734E6AB8617C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
